--- a/results/data/CDW2.3.xlsx
+++ b/results/data/CDW2.3.xlsx
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>704704.9070000006</v>
+        <v>705576.4580000015</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3024803.012999995</v>
+        <v>3024803.012999991</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -421,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2002129.391000004</v>
+        <v>2350415.607000005</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/CDW2.3.xlsx
+++ b/results/data/CDW2.3.xlsx
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>705576.4580000015</v>
+        <v>850449.2640000002</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3024803.012999991</v>
+        <v>2899761.61399999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -421,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2350415.607000005</v>
+        <v>1947529.594000004</v>
       </c>
     </row>
   </sheetData>
